--- a/public/export-templates/template_xuat_san_xuat.xlsx
+++ b/public/export-templates/template_xuat_san_xuat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64892DCE-0E47-4ABA-8332-55DCAE1E543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFB31A-E0A7-404E-BF1F-A5472EAE8933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
   </bookViews>
   <sheets>
     <sheet name="Template xuất sản xuất" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Loại xuất</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>XUẤT SẢN XUẤT</t>
-  </si>
-  <si>
-    <t>Xuất cho mục đích sản xuất</t>
   </si>
   <si>
     <t>PHIẾU XUẤT KHO - XUẤT SẢN XUẤT</t>
@@ -148,7 +145,61 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,61 +209,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -229,26 +226,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -292,15 +289,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>740333</xdr:rowOff>
+      <xdr:rowOff>22838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -323,8 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209550"/>
-          <a:ext cx="1190624" cy="721283"/>
+          <a:off x="47625" y="9525"/>
+          <a:ext cx="981075" cy="594338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,53 +653,51 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
+    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2</v>
@@ -711,1157 +706,1157 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="3" t="str">
         <f>IF(B10&lt;&gt;"", COUNTA($B$10:B10), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="3" t="str">
         <f>IF(B11&lt;&gt;"", COUNTA($B$10:B11), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="3" t="str">
         <f>IF(B12&lt;&gt;"", COUNTA($B$10:B12), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="3" t="str">
         <f>IF(B13&lt;&gt;"", COUNTA($B$10:B13), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="3" t="str">
         <f>IF(B14&lt;&gt;"", COUNTA($B$10:B14), "")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="3" t="str">
         <f>IF(B15&lt;&gt;"", COUNTA($B$10:B15), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="3" t="str">
         <f>IF(B16&lt;&gt;"", COUNTA($B$10:B16), "")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="3" t="str">
         <f>IF(B17&lt;&gt;"", COUNTA($B$10:B17), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
+      <c r="A18" s="3" t="str">
         <f>IF(B18&lt;&gt;"", COUNTA($B$10:B18), "")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="3" t="str">
         <f>IF(B19&lt;&gt;"", COUNTA($B$10:B19), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="3" t="str">
         <f>IF(B20&lt;&gt;"", COUNTA($B$10:B20), "")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="3" t="str">
         <f>IF(B21&lt;&gt;"", COUNTA($B$10:B21), "")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="3" t="str">
         <f>IF(B22&lt;&gt;"", COUNTA($B$10:B22), "")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
+      <c r="A23" s="3" t="str">
         <f>IF(B23&lt;&gt;"", COUNTA($B$10:B23), "")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
+      <c r="A24" s="3" t="str">
         <f>IF(B24&lt;&gt;"", COUNTA($B$10:B24), "")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
+      <c r="A25" s="3" t="str">
         <f>IF(B25&lt;&gt;"", COUNTA($B$10:B25), "")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
+      <c r="A26" s="3" t="str">
         <f>IF(B26&lt;&gt;"", COUNTA($B$10:B26), "")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
+      <c r="A27" s="3" t="str">
         <f>IF(B27&lt;&gt;"", COUNTA($B$10:B27), "")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
+      <c r="A28" s="3" t="str">
         <f>IF(B28&lt;&gt;"", COUNTA($B$10:B28), "")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
+      <c r="A29" s="3" t="str">
         <f>IF(B29&lt;&gt;"", COUNTA($B$10:B29), "")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="3" t="str">
         <f>IF(B30&lt;&gt;"", COUNTA($B$10:B30), "")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
+      <c r="A31" s="3" t="str">
         <f>IF(B31&lt;&gt;"", COUNTA($B$10:B31), "")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
+      <c r="A32" s="3" t="str">
         <f>IF(B32&lt;&gt;"", COUNTA($B$10:B32), "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="3" t="str">
         <f>IF(B33&lt;&gt;"", COUNTA($B$10:B33), "")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="3" t="str">
         <f>IF(B34&lt;&gt;"", COUNTA($B$10:B34), "")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
+      <c r="A35" s="3" t="str">
         <f>IF(B35&lt;&gt;"", COUNTA($B$10:B35), "")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
+      <c r="A36" s="3" t="str">
         <f>IF(B36&lt;&gt;"", COUNTA($B$10:B36), "")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
+      <c r="A37" s="3" t="str">
         <f>IF(B37&lt;&gt;"", COUNTA($B$10:B37), "")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
+      <c r="A38" s="3" t="str">
         <f>IF(B38&lt;&gt;"", COUNTA($B$10:B38), "")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
+      <c r="A39" s="3" t="str">
         <f>IF(B39&lt;&gt;"", COUNTA($B$10:B39), "")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
+      <c r="A40" s="3" t="str">
         <f>IF(B40&lt;&gt;"", COUNTA($B$10:B40), "")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
+      <c r="A41" s="3" t="str">
         <f>IF(B41&lt;&gt;"", COUNTA($B$10:B41), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
+      <c r="A42" s="3" t="str">
         <f>IF(B42&lt;&gt;"", COUNTA($B$10:B42), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
+      <c r="A43" s="3" t="str">
         <f>IF(B43&lt;&gt;"", COUNTA($B$10:B43), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
+      <c r="A44" s="3" t="str">
         <f>IF(B44&lt;&gt;"", COUNTA($B$10:B44), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
+      <c r="A45" s="3" t="str">
         <f>IF(B45&lt;&gt;"", COUNTA($B$10:B45), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
+      <c r="A46" s="3" t="str">
         <f>IF(B46&lt;&gt;"", COUNTA($B$10:B46), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
+      <c r="A47" s="3" t="str">
         <f>IF(B47&lt;&gt;"", COUNTA($B$10:B47), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
+      <c r="A48" s="3" t="str">
         <f>IF(B48&lt;&gt;"", COUNTA($B$10:B48), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
+      <c r="A49" s="3" t="str">
         <f>IF(B49&lt;&gt;"", COUNTA($B$10:B49), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
+      <c r="A50" s="3" t="str">
         <f>IF(B50&lt;&gt;"", COUNTA($B$10:B50), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
+      <c r="A51" s="3" t="str">
         <f>IF(B51&lt;&gt;"", COUNTA($B$10:B51), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
+      <c r="A52" s="3" t="str">
         <f>IF(B52&lt;&gt;"", COUNTA($B$10:B52), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
+      <c r="A53" s="3" t="str">
         <f>IF(B53&lt;&gt;"", COUNTA($B$10:B53), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
+      <c r="A54" s="3" t="str">
         <f>IF(B54&lt;&gt;"", COUNTA($B$10:B54), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
+      <c r="A55" s="3" t="str">
         <f>IF(B55&lt;&gt;"", COUNTA($B$10:B55), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
+      <c r="A56" s="3" t="str">
         <f>IF(B56&lt;&gt;"", COUNTA($B$10:B56), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
+      <c r="A57" s="3" t="str">
         <f>IF(B57&lt;&gt;"", COUNTA($B$10:B57), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
+      <c r="A58" s="3" t="str">
         <f>IF(B58&lt;&gt;"", COUNTA($B$10:B58), "")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
+      <c r="A59" s="3" t="str">
         <f>IF(B59&lt;&gt;"", COUNTA($B$10:B59), "")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
+      <c r="A60" s="3" t="str">
         <f>IF(B60&lt;&gt;"", COUNTA($B$10:B60), "")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
+      <c r="A61" s="3" t="str">
         <f>IF(B61&lt;&gt;"", COUNTA($B$10:B61), "")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
+      <c r="A62" s="3" t="str">
         <f>IF(B62&lt;&gt;"", COUNTA($B$10:B62), "")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
+      <c r="A63" s="3" t="str">
         <f>IF(B63&lt;&gt;"", COUNTA($B$10:B63), "")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
+      <c r="A64" s="3" t="str">
         <f>IF(B64&lt;&gt;"", COUNTA($B$10:B64), "")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
+      <c r="A65" s="3" t="str">
         <f>IF(B65&lt;&gt;"", COUNTA($B$10:B65), "")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
+      <c r="A66" s="3" t="str">
         <f>IF(B66&lt;&gt;"", COUNTA($B$10:B66), "")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
+      <c r="A67" s="3" t="str">
         <f>IF(B67&lt;&gt;"", COUNTA($B$10:B67), "")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
+      <c r="A68" s="3" t="str">
         <f>IF(B68&lt;&gt;"", COUNTA($B$10:B68), "")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
+      <c r="A69" s="3" t="str">
         <f>IF(B69&lt;&gt;"", COUNTA($B$10:B69), "")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
+      <c r="A70" s="3" t="str">
         <f>IF(B70&lt;&gt;"", COUNTA($B$10:B70), "")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
+      <c r="A71" s="3" t="str">
         <f>IF(B71&lt;&gt;"", COUNTA($B$10:B71), "")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
+      <c r="A72" s="3" t="str">
         <f>IF(B72&lt;&gt;"", COUNTA($B$10:B72), "")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
+      <c r="A73" s="3" t="str">
         <f>IF(B73&lt;&gt;"", COUNTA($B$10:B73), "")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
+      <c r="A74" s="3" t="str">
         <f>IF(B74&lt;&gt;"", COUNTA($B$10:B74), "")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
+      <c r="A75" s="3" t="str">
         <f>IF(B75&lt;&gt;"", COUNTA($B$10:B75), "")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str">
+      <c r="A76" s="3" t="str">
         <f>IF(B76&lt;&gt;"", COUNTA($B$10:B76), "")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str">
+      <c r="A77" s="3" t="str">
         <f>IF(B77&lt;&gt;"", COUNTA($B$10:B77), "")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str">
+      <c r="A78" s="3" t="str">
         <f>IF(B78&lt;&gt;"", COUNTA($B$10:B78), "")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str">
+      <c r="A79" s="3" t="str">
         <f>IF(B79&lt;&gt;"", COUNTA($B$10:B79), "")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
+      <c r="A80" s="3" t="str">
         <f>IF(B80&lt;&gt;"", COUNTA($B$10:B80), "")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str">
+      <c r="A81" s="3" t="str">
         <f>IF(B81&lt;&gt;"", COUNTA($B$10:B81), "")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
+      <c r="A82" s="3" t="str">
         <f>IF(B82&lt;&gt;"", COUNTA($B$10:B82), "")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str">
+      <c r="A83" s="3" t="str">
         <f>IF(B83&lt;&gt;"", COUNTA($B$10:B83), "")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
+      <c r="A84" s="3" t="str">
         <f>IF(B84&lt;&gt;"", COUNTA($B$10:B84), "")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
+      <c r="A85" s="3" t="str">
         <f>IF(B85&lt;&gt;"", COUNTA($B$10:B85), "")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="str">
+      <c r="A86" s="3" t="str">
         <f>IF(B86&lt;&gt;"", COUNTA($B$10:B86), "")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="str">
+      <c r="A87" s="3" t="str">
         <f>IF(B87&lt;&gt;"", COUNTA($B$10:B87), "")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="str">
+      <c r="A88" s="3" t="str">
         <f>IF(B88&lt;&gt;"", COUNTA($B$10:B88), "")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="str">
+      <c r="A89" s="3" t="str">
         <f>IF(B89&lt;&gt;"", COUNTA($B$10:B89), "")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="str">
+      <c r="A90" s="3" t="str">
         <f>IF(B90&lt;&gt;"", COUNTA($B$10:B90), "")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="str">
+      <c r="A91" s="3" t="str">
         <f>IF(B91&lt;&gt;"", COUNTA($B$10:B91), "")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="str">
+      <c r="A92" s="3" t="str">
         <f>IF(B92&lt;&gt;"", COUNTA($B$10:B92), "")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="str">
+      <c r="A93" s="3" t="str">
         <f>IF(B93&lt;&gt;"", COUNTA($B$10:B93), "")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="str">
+      <c r="A94" s="3" t="str">
         <f>IF(B94&lt;&gt;"", COUNTA($B$10:B94), "")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="str">
+      <c r="A95" s="3" t="str">
         <f>IF(B95&lt;&gt;"", COUNTA($B$10:B95), "")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="str">
+      <c r="A96" s="3" t="str">
         <f>IF(B96&lt;&gt;"", COUNTA($B$10:B96), "")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="str">
+      <c r="A97" s="3" t="str">
         <f>IF(B97&lt;&gt;"", COUNTA($B$10:B97), "")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="str">
+      <c r="A98" s="3" t="str">
         <f>IF(B98&lt;&gt;"", COUNTA($B$10:B98), "")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="str">
+      <c r="A99" s="3" t="str">
         <f>IF(B99&lt;&gt;"", COUNTA($B$10:B99), "")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="str">
+      <c r="A100" s="3" t="str">
         <f>IF(B100&lt;&gt;"", COUNTA($B$10:B100), "")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="str">
+      <c r="A101" s="3" t="str">
         <f>IF(B101&lt;&gt;"", COUNTA($B$10:B101), "")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="str">
+      <c r="A102" s="3" t="str">
         <f>IF(B102&lt;&gt;"", COUNTA($B$10:B102), "")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="str">
+      <c r="A103" s="3" t="str">
         <f>IF(B103&lt;&gt;"", COUNTA($B$10:B103), "")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="str">
+      <c r="A104" s="3" t="str">
         <f>IF(B104&lt;&gt;"", COUNTA($B$10:B104), "")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="str">
+      <c r="A105" s="3" t="str">
         <f>IF(B105&lt;&gt;"", COUNTA($B$10:B105), "")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="str">
+      <c r="A106" s="3" t="str">
         <f>IF(B106&lt;&gt;"", COUNTA($B$10:B106), "")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="str">
+      <c r="A107" s="3" t="str">
         <f>IF(B107&lt;&gt;"", COUNTA($B$10:B107), "")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="str">
+      <c r="A108" s="3" t="str">
         <f>IF(B108&lt;&gt;"", COUNTA($B$10:B108), "")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="str">
+      <c r="A109" s="3" t="str">
         <f>IF(B109&lt;&gt;"", COUNTA($B$10:B109), "")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="str">
+      <c r="A110" s="3" t="str">
         <f>IF(B110&lt;&gt;"", COUNTA($B$10:B110), "")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="str">
+      <c r="A111" s="3" t="str">
         <f>IF(B111&lt;&gt;"", COUNTA($B$10:B111), "")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="str">
+      <c r="A112" s="3" t="str">
         <f>IF(B112&lt;&gt;"", COUNTA($B$10:B112), "")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="str">
+      <c r="A113" s="3" t="str">
         <f>IF(B113&lt;&gt;"", COUNTA($B$10:B113), "")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="str">
+      <c r="A114" s="3" t="str">
         <f>IF(B114&lt;&gt;"", COUNTA($B$10:B114), "")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="str">
+      <c r="A115" s="3" t="str">
         <f>IF(B115&lt;&gt;"", COUNTA($B$10:B115), "")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="str">
+      <c r="A116" s="3" t="str">
         <f>IF(B116&lt;&gt;"", COUNTA($B$10:B116), "")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="str">
+      <c r="A117" s="3" t="str">
         <f>IF(B117&lt;&gt;"", COUNTA($B$10:B117), "")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="str">
+      <c r="A118" s="3" t="str">
         <f>IF(B118&lt;&gt;"", COUNTA($B$10:B118), "")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="str">
+      <c r="A119" s="3" t="str">
         <f>IF(B119&lt;&gt;"", COUNTA($B$10:B119), "")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="str">
+      <c r="A120" s="3" t="str">
         <f>IF(B120&lt;&gt;"", COUNTA($B$10:B120), "")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="str">
+      <c r="A121" s="3" t="str">
         <f>IF(B121&lt;&gt;"", COUNTA($B$10:B121), "")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="str">
+      <c r="A122" s="3" t="str">
         <f>IF(B122&lt;&gt;"", COUNTA($B$10:B122), "")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="str">
+      <c r="A123" s="3" t="str">
         <f>IF(B123&lt;&gt;"", COUNTA($B$10:B123), "")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="str">
+      <c r="A124" s="3" t="str">
         <f>IF(B124&lt;&gt;"", COUNTA($B$10:B124), "")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="str">
+      <c r="A125" s="3" t="str">
         <f>IF(B125&lt;&gt;"", COUNTA($B$10:B125), "")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="str">
+      <c r="A126" s="3" t="str">
         <f>IF(B126&lt;&gt;"", COUNTA($B$10:B126), "")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="str">
+      <c r="A127" s="3" t="str">
         <f>IF(B127&lt;&gt;"", COUNTA($B$10:B127), "")</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="str">
+      <c r="A128" s="3" t="str">
         <f>IF(B128&lt;&gt;"", COUNTA($B$10:B128), "")</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="str">
+      <c r="A129" s="3" t="str">
         <f>IF(B129&lt;&gt;"", COUNTA($B$10:B129), "")</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="str">
+      <c r="A130" s="3" t="str">
         <f>IF(B130&lt;&gt;"", COUNTA($B$10:B130), "")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="str">
+      <c r="A131" s="3" t="str">
         <f>IF(B131&lt;&gt;"", COUNTA($B$10:B131), "")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="str">
+      <c r="A132" s="3" t="str">
         <f>IF(B132&lt;&gt;"", COUNTA($B$10:B132), "")</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="str">
+      <c r="A133" s="3" t="str">
         <f>IF(B133&lt;&gt;"", COUNTA($B$10:B133), "")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="str">
+      <c r="A134" s="3" t="str">
         <f>IF(B134&lt;&gt;"", COUNTA($B$10:B134), "")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="str">
+      <c r="A135" s="3" t="str">
         <f>IF(B135&lt;&gt;"", COUNTA($B$10:B135), "")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="str">
+      <c r="A136" s="3" t="str">
         <f>IF(B136&lt;&gt;"", COUNTA($B$10:B136), "")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="str">
+      <c r="A137" s="3" t="str">
         <f>IF(B137&lt;&gt;"", COUNTA($B$10:B137), "")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="str">
+      <c r="A138" s="3" t="str">
         <f>IF(B138&lt;&gt;"", COUNTA($B$10:B138), "")</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="str">
+      <c r="A139" s="3" t="str">
         <f>IF(B139&lt;&gt;"", COUNTA($B$10:B139), "")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="str">
+      <c r="A140" s="3" t="str">
         <f>IF(B140&lt;&gt;"", COUNTA($B$10:B140), "")</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="str">
+      <c r="A141" s="3" t="str">
         <f>IF(B141&lt;&gt;"", COUNTA($B$10:B141), "")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="str">
+      <c r="A142" s="3" t="str">
         <f>IF(B142&lt;&gt;"", COUNTA($B$10:B142), "")</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="str">
+      <c r="A143" s="3" t="str">
         <f>IF(B143&lt;&gt;"", COUNTA($B$10:B143), "")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="str">
+      <c r="A144" s="3" t="str">
         <f>IF(B144&lt;&gt;"", COUNTA($B$10:B144), "")</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="str">
+      <c r="A145" s="3" t="str">
         <f>IF(B145&lt;&gt;"", COUNTA($B$10:B145), "")</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="str">
+      <c r="A146" s="3" t="str">
         <f>IF(B146&lt;&gt;"", COUNTA($B$10:B146), "")</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="str">
+      <c r="A147" s="3" t="str">
         <f>IF(B147&lt;&gt;"", COUNTA($B$10:B147), "")</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="str">
+      <c r="A148" s="3" t="str">
         <f>IF(B148&lt;&gt;"", COUNTA($B$10:B148), "")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="str">
+      <c r="A149" s="3" t="str">
         <f>IF(B149&lt;&gt;"", COUNTA($B$10:B149), "")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="str">
+      <c r="A150" s="3" t="str">
         <f>IF(B150&lt;&gt;"", COUNTA($B$10:B150), "")</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="str">
+      <c r="A151" s="3" t="str">
         <f>IF(B151&lt;&gt;"", COUNTA($B$10:B151), "")</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="str">
+      <c r="A152" s="3" t="str">
         <f>IF(B152&lt;&gt;"", COUNTA($B$10:B152), "")</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="str">
+      <c r="A153" s="3" t="str">
         <f>IF(B153&lt;&gt;"", COUNTA($B$10:B153), "")</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="str">
+      <c r="A154" s="3" t="str">
         <f>IF(B154&lt;&gt;"", COUNTA($B$10:B154), "")</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="str">
+      <c r="A155" s="3" t="str">
         <f>IF(B155&lt;&gt;"", COUNTA($B$10:B155), "")</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="str">
+      <c r="A156" s="3" t="str">
         <f>IF(B156&lt;&gt;"", COUNTA($B$10:B156), "")</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="str">
+      <c r="A157" s="3" t="str">
         <f>IF(B157&lt;&gt;"", COUNTA($B$10:B157), "")</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="str">
+      <c r="A158" s="3" t="str">
         <f>IF(B158&lt;&gt;"", COUNTA($B$10:B158), "")</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="str">
+      <c r="A159" s="3" t="str">
         <f>IF(B159&lt;&gt;"", COUNTA($B$10:B159), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="str">
+      <c r="A160" s="3" t="str">
         <f>IF(B160&lt;&gt;"", COUNTA($B$10:B160), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="str">
+      <c r="A161" s="3" t="str">
         <f>IF(B161&lt;&gt;"", COUNTA($B$10:B161), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="str">
+      <c r="A162" s="3" t="str">
         <f>IF(B162&lt;&gt;"", COUNTA($B$10:B162), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="str">
+      <c r="A163" s="3" t="str">
         <f>IF(B163&lt;&gt;"", COUNTA($B$10:B163), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="str">
+      <c r="A164" s="3" t="str">
         <f>IF(B164&lt;&gt;"", COUNTA($B$10:B164), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="str">
+      <c r="A165" s="3" t="str">
         <f>IF(B165&lt;&gt;"", COUNTA($B$10:B165), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="str">
+      <c r="A166" s="3" t="str">
         <f>IF(B166&lt;&gt;"", COUNTA($B$10:B166), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="str">
+      <c r="A167" s="3" t="str">
         <f>IF(B167&lt;&gt;"", COUNTA($B$10:B167), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="str">
+      <c r="A168" s="3" t="str">
         <f>IF(B168&lt;&gt;"", COUNTA($B$10:B168), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="str">
+      <c r="A169" s="3" t="str">
         <f>IF(B169&lt;&gt;"", COUNTA($B$10:B169), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="str">
+      <c r="A170" s="3" t="str">
         <f>IF(B170&lt;&gt;"", COUNTA($B$10:B170), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="str">
+      <c r="A171" s="3" t="str">
         <f>IF(B171&lt;&gt;"", COUNTA($B$10:B171), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="str">
+      <c r="A172" s="3" t="str">
         <f>IF(B172&lt;&gt;"", COUNTA($B$10:B172), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="str">
+      <c r="A173" s="3" t="str">
         <f>IF(B173&lt;&gt;"", COUNTA($B$10:B173), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="str">
+      <c r="A174" s="3" t="str">
         <f>IF(B174&lt;&gt;"", COUNTA($B$10:B174), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="str">
+      <c r="A175" s="3" t="str">
         <f>IF(B175&lt;&gt;"", COUNTA($B$10:B175), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="str">
+      <c r="A176" s="3" t="str">
         <f>IF(B176&lt;&gt;"", COUNTA($B$10:B176), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="str">
+      <c r="A177" s="3" t="str">
         <f>IF(B177&lt;&gt;"", COUNTA($B$10:B177), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="str">
+      <c r="A178" s="3" t="str">
         <f>IF(B178&lt;&gt;"", COUNTA($B$10:B178), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="str">
+      <c r="A179" s="3" t="str">
         <f>IF(B179&lt;&gt;"", COUNTA($B$10:B179), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="str">
+      <c r="A180" s="3" t="str">
         <f>IF(B180&lt;&gt;"", COUNTA($B$10:B180), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="str">
+      <c r="A181" s="3" t="str">
         <f>IF(B181&lt;&gt;"", COUNTA($B$10:B181), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="str">
+      <c r="A182" s="3" t="str">
         <f>IF(B182&lt;&gt;"", COUNTA($B$10:B182), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="str">
+      <c r="A183" s="3" t="str">
         <f>IF(B183&lt;&gt;"", COUNTA($B$10:B183), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="str">
+      <c r="A184" s="3" t="str">
         <f>IF(B184&lt;&gt;"", COUNTA($B$10:B184), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="str">
+      <c r="A185" s="3" t="str">
         <f>IF(B185&lt;&gt;"", COUNTA($B$10:B185), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="str">
+      <c r="A186" s="3" t="str">
         <f>IF(B186&lt;&gt;"", COUNTA($B$10:B186), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="str">
+      <c r="A187" s="3" t="str">
         <f>IF(B187&lt;&gt;"", COUNTA($B$10:B187), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="str">
+      <c r="A188" s="3" t="str">
         <f>IF(B188&lt;&gt;"", COUNTA($B$10:B188), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="str">
+      <c r="A189" s="3" t="str">
         <f>IF(B189&lt;&gt;"", COUNTA($B$10:B189), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="str">
+      <c r="A190" s="3" t="str">
         <f>IF(B190&lt;&gt;"", COUNTA($B$10:B190), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="str">
+      <c r="A191" s="3" t="str">
         <f>IF(B191&lt;&gt;"", COUNTA($B$10:B191), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="str">
+      <c r="A192" s="3" t="str">
         <f>IF(B192&lt;&gt;"", COUNTA($B$10:B192), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="str">
+      <c r="A193" s="3" t="str">
         <f>IF(B193&lt;&gt;"", COUNTA($B$10:B193), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="str">
+      <c r="A194" s="3" t="str">
         <f>IF(B194&lt;&gt;"", COUNTA($B$10:B194), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="str">
+      <c r="A195" s="3" t="str">
         <f>IF(B195&lt;&gt;"", COUNTA($B$10:B195), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="str">
+      <c r="A196" s="3" t="str">
         <f>IF(B196&lt;&gt;"", COUNTA($B$10:B196), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="str">
+      <c r="A197" s="3" t="str">
         <f>IF(B197&lt;&gt;"", COUNTA($B$10:B197), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="str">
+      <c r="A198" s="3" t="str">
         <f>IF(B198&lt;&gt;"", COUNTA($B$10:B198), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="str">
+      <c r="A199" s="3" t="str">
         <f>IF(B199&lt;&gt;"", COUNTA($B$10:B199), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="str">
+      <c r="A200" s="3" t="str">
         <f>IF(B200&lt;&gt;"", COUNTA($B$10:B200), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uu+dHN1ALwIseWNL94XOPlI7RSssdg1ATC04zSiw7IijpnLQY3T0JNYvbxuR2izReoCp3Vua7HI/ugCm0ct+pw==" saltValue="IiwyjK+wJdBj8RLTTDsyYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wHkF9kn4tO1+hZATWkFgckNOBl7eSah/XnQ9JxpwIKJWMVo+V6MvvbHWuWrfT0Vgd+uFxSdJ6jRexmtHo/Lk6g==" saltValue="25Q0VqSoTrj21Cr/C31Xtw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A9:C10 B11:C198 A11:A200">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>A9&lt;&gt;""</formula>
